--- a/auto_cv_res/enright_res_input.xlsx
+++ b/auto_cv_res/enright_res_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allisonenright/Documents/git/am-enright.github.io/auto_cv_res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD9284D-BC26-9247-A8FC-668AE5F74501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CB704E-3746-8F45-AD07-05C5B5FB8130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14620" yWindow="500" windowWidth="14180" windowHeight="15520" activeTab="1" xr2:uid="{93051FA6-4B20-D54F-88AD-4B85C8EF119B}"/>
+    <workbookView xWindow="14620" yWindow="500" windowWidth="14180" windowHeight="15520" activeTab="2" xr2:uid="{93051FA6-4B20-D54F-88AD-4B85C8EF119B}"/>
   </bookViews>
   <sheets>
     <sheet name="sections_key" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="154">
   <si>
     <t>Sheet Name</t>
   </si>
@@ -279,21 +279,12 @@
     <t>University of Tuebingen</t>
   </si>
   <si>
-    <t>Early-Earth oceanic microbiology</t>
-  </si>
-  <si>
     <t>Rutgers University</t>
   </si>
   <si>
     <t>Astrobiology and life detection</t>
   </si>
   <si>
-    <t>2016--2018</t>
-  </si>
-  <si>
-    <t>2015--2016</t>
-  </si>
-  <si>
     <t>Oklahoma State University</t>
   </si>
   <si>
@@ -420,9 +411,6 @@
     <t xml:space="preserve">Designed and coordinated a five-person team to perform early-Earth analog anaerobic sterilization experiments using a combination of microbial, mineralogical, and geochemical techniques. </t>
   </si>
   <si>
-    <t>Directed research carried out by 14 trainees by designing experiments, demonstrating and supervising lab and field techniques, advising on data collection, and collaborating on data analysis and communication of results</t>
-  </si>
-  <si>
     <t>Monitoring the effectiveness of remediation treatments is expensive, labour intensive, and has high uncertainty. I designed a sensor-based, in situ methods to get better quality, real-time information about critical biogeochemical processes. This technology is expected to reduce the timeline for assessing treatment effectiveness by at least 75%.</t>
   </si>
   <si>
@@ -465,16 +453,55 @@
     <t>Geology</t>
   </si>
   <si>
-    <t>2020--now</t>
-  </si>
-  <si>
     <t>Using funds leveraged from successful grants, I renovated an asbestos-filled, unmaintained lab space, purchased all the necessary equipment and instrumentation to carry out my research, and completed the first biosafety certification in my building to undertake microbial experiments.</t>
   </si>
   <si>
-    <t xml:space="preserve">Assistant Professor, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postdoctoral Scientist, </t>
+    <t>Archean ocean habitability</t>
+  </si>
+  <si>
+    <t>Electrical fields as astrobiological targets</t>
+  </si>
+  <si>
+    <t>Assistant Professor of Environmental Geochemistry</t>
+  </si>
+  <si>
+    <t>2020 -- present</t>
+  </si>
+  <si>
+    <t>2016 -- 2018</t>
+  </si>
+  <si>
+    <t>2015 -- 2016</t>
+  </si>
+  <si>
+    <t>PhD Microbial geochemistry</t>
+  </si>
+  <si>
+    <t>MSc Geodynamics</t>
+  </si>
+  <si>
+    <t>BSc Hons. Geology</t>
+  </si>
+  <si>
+    <t>degreeDisc</t>
+  </si>
+  <si>
+    <t>Visiting Research Scholar, Astrobiology</t>
+  </si>
+  <si>
+    <t>Postdoctoral Scientist, Early earth habitability</t>
+  </si>
+  <si>
+    <t>Postdoctoral Scientist, Astrobiology</t>
+  </si>
+  <si>
+    <t>Postdoctoral Scientist, Biogeophysics</t>
+  </si>
+  <si>
+    <t>Designed microscope-mounted anaerobic miniature potentiostats.</t>
+  </si>
+  <si>
+    <t>Directed research carried out by 14 trainees by designing experiments, demonstrating and supervising lab and field techniques, advising on data collection, and collaborating on data analysis and communication of results.</t>
   </si>
 </sst>
 </file>
@@ -1126,132 +1153,150 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F1D3A0-34B1-6241-A7C4-C2A9CD818F78}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2">
+        <v>2015</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3">
+        <v>2015</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4">
+        <v>2011</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5">
+        <v>2011</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6">
+        <v>2010</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
         <v>134</v>
-      </c>
-      <c r="B2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2">
-        <v>2015</v>
-      </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3">
-        <v>2015</v>
-      </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4">
-        <v>2011</v>
-      </c>
-      <c r="D4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5">
-        <v>2011</v>
-      </c>
-      <c r="D5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6">
-        <v>2010</v>
-      </c>
-      <c r="D6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1261,10 +1306,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7E1CA6-38CF-FA4C-92A3-1C532A7F084E}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1294,7 +1339,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -1312,12 +1357,12 @@
         <v>141</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -1335,12 +1380,12 @@
         <v>141</v>
       </c>
       <c r="G3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -1358,12 +1403,12 @@
         <v>141</v>
       </c>
       <c r="G4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -1381,12 +1426,12 @@
         <v>141</v>
       </c>
       <c r="G5" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -1404,70 +1449,87 @@
         <v>141</v>
       </c>
       <c r="G6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="F7">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="G7" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8">
-        <v>2016</v>
-      </c>
-      <c r="E8">
+        <v>138</v>
+      </c>
+      <c r="F8">
         <v>2019</v>
       </c>
-      <c r="F8" t="s">
-        <v>82</v>
-      </c>
       <c r="G8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D9">
+        <v>2016</v>
+      </c>
+      <c r="E9">
+        <v>2019</v>
+      </c>
+      <c r="F9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10">
         <v>2015</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>2016</v>
       </c>
-      <c r="F9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" t="s">
-        <v>129</v>
+      <c r="F10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1545,194 +1607,194 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1740,7 +1802,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1748,31 +1810,31 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
